--- a/main/cmy2lab/results/nn_logistic_lbfgs_results.xlsx
+++ b/main/cmy2lab/results/nn_logistic_lbfgs_results.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.644803342658453</v>
+        <v>0.1218382359489764</v>
       </c>
       <c r="C2" t="n">
-        <v>1.413785941573811</v>
+        <v>0.1061302368604077</v>
       </c>
       <c r="D2" t="n">
-        <v>5.819335408701139</v>
+        <v>0.4641906626525516</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.870254357934876</v>
+        <v>0.3153533443126171</v>
       </c>
       <c r="C3" t="n">
-        <v>4.568052572335116</v>
+        <v>0.3216352741720927</v>
       </c>
       <c r="D3" t="n">
-        <v>9.914589531931263</v>
+        <v>0.6011143663992743</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.843003707384251</v>
+        <v>0.2004554346097843</v>
       </c>
       <c r="C4" t="n">
-        <v>3.7236412202003</v>
+        <v>0.1923780245089214</v>
       </c>
       <c r="D4" t="n">
-        <v>9.83105799205841</v>
+        <v>0.4166968174237385</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.312833769212228</v>
+        <v>0.2168900686098033</v>
       </c>
       <c r="C5" t="n">
-        <v>4.274412554853543</v>
+        <v>0.196797269192097</v>
       </c>
       <c r="D5" t="n">
-        <v>9.586556866036672</v>
+        <v>0.4963417106164115</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.475054409548624</v>
+        <v>0.1490870213650902</v>
       </c>
       <c r="C6" t="n">
-        <v>2.035508626239313</v>
+        <v>0.1256955564800549</v>
       </c>
       <c r="D6" t="n">
-        <v>8.187753865861971</v>
+        <v>0.4554502518395353</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.470322711060678</v>
+        <v>0.1489469083040103</v>
       </c>
       <c r="C7" t="n">
-        <v>2.316053418882732</v>
+        <v>0.1389506562694136</v>
       </c>
       <c r="D7" t="n">
-        <v>6.94221449008008</v>
+        <v>0.465694114906238</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.475054409548624</v>
+        <v>0.1490870213650902</v>
       </c>
       <c r="C8" t="n">
-        <v>2.035508626239313</v>
+        <v>0.1256955564800549</v>
       </c>
       <c r="D8" t="n">
-        <v>8.187753865861971</v>
+        <v>0.4554502518395353</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.417347931965122</v>
+        <v>0.1444238565520872</v>
       </c>
       <c r="C9" t="n">
-        <v>2.227495711460449</v>
+        <v>0.1308670479091075</v>
       </c>
       <c r="D9" t="n">
-        <v>7.144246951908412</v>
+        <v>0.4551505387614845</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.949679075014268</v>
+        <v>0.2131776538664975</v>
       </c>
       <c r="C10" t="n">
-        <v>1.677637608945553</v>
+        <v>0.2040759701375828</v>
       </c>
       <c r="D10" t="n">
-        <v>5.742813294631205</v>
+        <v>0.4997872809907797</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.078046962301734</v>
+        <v>0.1295853644787765</v>
       </c>
       <c r="C11" t="n">
-        <v>1.886835703007757</v>
+        <v>0.1023459818892668</v>
       </c>
       <c r="D11" t="n">
-        <v>6.32349495455799</v>
+        <v>0.4632696175889162</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.603096556765305</v>
+        <v>0.1892710869174644</v>
       </c>
       <c r="C12" t="n">
-        <v>4.50576120694067</v>
+        <v>0.1893118366814188</v>
       </c>
       <c r="D12" t="n">
-        <v>11.16509528471385</v>
+        <v>0.4119420273243152</v>
       </c>
     </row>
     <row r="13">
@@ -638,29 +638,29 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.540244624204205</v>
+        <v>0.2105022343954909</v>
       </c>
       <c r="C13" t="n">
-        <v>3.265812778292117</v>
+        <v>0.1866002889289446</v>
       </c>
       <c r="D13" t="n">
-        <v>9.665743741768404</v>
+        <v>0.4835363709792924</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>{'hidden_layer_sizes': (20,), 'activation': 'relu', 'solver': 'lbfgs', 'max_iter': 200}</t>
+          <t>{'hidden_layer_sizes': (20,), 'activation': 'relu', 'solver': 'lbfgs', 'max_iter': 1000}</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.710418498186413</v>
+        <v>0.1180271759014531</v>
       </c>
       <c r="C14" t="n">
-        <v>1.491060497983059</v>
+        <v>0.0876655265994279</v>
       </c>
       <c r="D14" t="n">
-        <v>5.369837050416471</v>
+        <v>0.44636710552743</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.649660742321598</v>
+        <v>0.1331524960016573</v>
       </c>
       <c r="C15" t="n">
-        <v>2.480207337123202</v>
+        <v>0.115429305184297</v>
       </c>
       <c r="D15" t="n">
-        <v>8.132804157610394</v>
+        <v>0.4217904197596691</v>
       </c>
     </row>
   </sheetData>
